--- a/Evidencias EGC.xlsx
+++ b/Evidencias EGC.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="357">
   <si>
     <t>HORAS ASISTENCIA</t>
   </si>
@@ -1108,6 +1108,9 @@
   </si>
   <si>
     <t>Trabajo extra</t>
+  </si>
+  <si>
+    <t>Trabajo extra (rar)</t>
   </si>
 </sst>
 </file>
@@ -1603,6 +1606,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1617,26 +1640,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2008,13 +2011,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB189"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="73" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" style="66" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
@@ -2031,7 +2034,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="27" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="65" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="13"/>
@@ -2048,7 +2051,7 @@
       <c r="H2" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="72" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -2110,74 +2113,74 @@
       </c>
     </row>
     <row r="3" spans="1:28" ht="42" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="75" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="12"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="69"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="79"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="70"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
     </row>
     <row r="4" spans="1:28" ht="25.5" customHeight="1" thickTop="1">
-      <c r="A4" s="66"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="79"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
     </row>
     <row r="5" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="44" t="s">
@@ -2278,7 +2281,7 @@
       <c r="AB6" s="36"/>
     </row>
     <row r="7" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="67" t="s">
         <v>130</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -2329,7 +2332,7 @@
       <c r="AB7" s="32"/>
     </row>
     <row r="8" spans="1:28" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="68" t="s">
         <v>131</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -2596,7 +2599,7 @@
       <c r="AB12" s="37"/>
     </row>
     <row r="13" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="67" t="s">
         <v>136</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -2708,7 +2711,7 @@
       <c r="AB14" s="36"/>
     </row>
     <row r="15" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="67" t="s">
         <v>138</v>
       </c>
       <c r="B15" s="20" t="s">
@@ -2908,7 +2911,7 @@
       <c r="AB18" s="36"/>
     </row>
     <row r="19" spans="1:28" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="68" t="s">
         <v>142</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -3016,7 +3019,7 @@
       <c r="AB20" s="36"/>
     </row>
     <row r="21" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="67" t="s">
         <v>144</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -3146,7 +3149,7 @@
       <c r="AB22" s="37"/>
     </row>
     <row r="23" spans="1:28" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="68" t="s">
         <v>216</v>
       </c>
       <c r="B23" s="22" t="s">
@@ -3274,7 +3277,7 @@
       <c r="AB24" s="36"/>
     </row>
     <row r="25" spans="1:28" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="68" t="s">
         <v>218</v>
       </c>
       <c r="B25" s="22" t="s">
@@ -3380,7 +3383,7 @@
       <c r="AB26" s="36"/>
     </row>
     <row r="27" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="67" t="s">
         <v>220</v>
       </c>
       <c r="B27" s="20" t="s">
@@ -3806,7 +3809,7 @@
       <c r="AB34" s="36"/>
     </row>
     <row r="35" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="67" t="s">
         <v>228</v>
       </c>
       <c r="B35" s="20" t="s">
@@ -3946,7 +3949,7 @@
       <c r="AB36" s="37"/>
     </row>
     <row r="37" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A37" s="74" t="s">
+      <c r="A37" s="67" t="s">
         <v>230</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -4382,7 +4385,7 @@
       <c r="AB44" s="36"/>
     </row>
     <row r="45" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="74" t="s">
+      <c r="A45" s="67" t="s">
         <v>238</v>
       </c>
       <c r="B45" s="20" t="s">
@@ -4598,7 +4601,7 @@
       <c r="AB48" s="39"/>
     </row>
     <row r="49" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A49" s="74" t="s">
+      <c r="A49" s="67" t="s">
         <v>242</v>
       </c>
       <c r="B49" s="20" t="s">
@@ -5053,7 +5056,7 @@
       <c r="AB57" s="35"/>
     </row>
     <row r="58" spans="1:28" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A58" s="75" t="s">
+      <c r="A58" s="68" t="s">
         <v>251</v>
       </c>
       <c r="B58" s="22" t="s">
@@ -5122,7 +5125,7 @@
       <c r="AB58" s="34"/>
     </row>
     <row r="59" spans="1:28" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A59" s="75" t="s">
+      <c r="A59" s="68" t="s">
         <v>252</v>
       </c>
       <c r="B59" s="22" t="s">
@@ -5246,7 +5249,7 @@
       <c r="AB60" s="36"/>
     </row>
     <row r="61" spans="1:28" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A61" s="75" t="s">
+      <c r="A61" s="68" t="s">
         <v>253</v>
       </c>
       <c r="B61" s="22" t="s">
@@ -5668,7 +5671,7 @@
       <c r="AB68" s="37"/>
     </row>
     <row r="69" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A69" s="74" t="s">
+      <c r="A69" s="67" t="s">
         <v>259</v>
       </c>
       <c r="B69" s="20" t="s">
@@ -5768,7 +5771,7 @@
       <c r="AB70" s="36"/>
     </row>
     <row r="71" spans="1:28" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A71" s="75" t="s">
+      <c r="A71" s="68" t="s">
         <v>261</v>
       </c>
       <c r="B71" s="22" t="s">
@@ -5851,7 +5854,7 @@
       <c r="AB71" s="34"/>
     </row>
     <row r="72" spans="1:28" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A72" s="75" t="s">
+      <c r="A72" s="68" t="s">
         <v>262</v>
       </c>
       <c r="B72" s="22" t="s">
@@ -6052,13 +6055,15 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="H75" s="43">
-        <v>0</v>
-      </c>
-      <c r="I75" s="43">
+        <v>0.65625</v>
+      </c>
+      <c r="I75" s="53">
         <f t="shared" si="2"/>
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="J75" s="35"/>
+        <v>1.1770833333333335</v>
+      </c>
+      <c r="J75" s="63" t="s">
+        <v>356</v>
+      </c>
       <c r="K75" s="35"/>
       <c r="L75" s="35"/>
       <c r="M75" s="35"/>
@@ -6128,7 +6133,7 @@
       <c r="AB76" s="36"/>
     </row>
     <row r="77" spans="1:28" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A77" s="75" t="s">
+      <c r="A77" s="68" t="s">
         <v>267</v>
       </c>
       <c r="B77" s="22" t="s">
@@ -6197,7 +6202,7 @@
       <c r="AB77" s="34"/>
     </row>
     <row r="78" spans="1:28" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A78" s="75" t="s">
+      <c r="A78" s="68" t="s">
         <v>268</v>
       </c>
       <c r="B78" s="22" t="s">
@@ -6395,7 +6400,7 @@
       <c r="AB81" s="35"/>
     </row>
     <row r="82" spans="1:28" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A82" s="75" t="s">
+      <c r="A82" s="68" t="s">
         <v>272</v>
       </c>
       <c r="B82" s="22" t="s">
@@ -6650,7 +6655,7 @@
       <c r="AB86" s="37"/>
     </row>
     <row r="87" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A87" s="74" t="s">
+      <c r="A87" s="67" t="s">
         <v>277</v>
       </c>
       <c r="B87" s="20" t="s">
@@ -6854,7 +6859,7 @@
       <c r="AB90" s="36"/>
     </row>
     <row r="91" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A91" s="74" t="s">
+      <c r="A91" s="67" t="s">
         <v>291</v>
       </c>
       <c r="B91" s="20" t="s">
@@ -6911,7 +6916,7 @@
       <c r="AB91" s="32"/>
     </row>
     <row r="92" spans="1:28" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A92" s="75" t="s">
+      <c r="A92" s="68" t="s">
         <v>290</v>
       </c>
       <c r="B92" s="22" t="s">
@@ -6990,7 +6995,7 @@
       <c r="AB92" s="34"/>
     </row>
     <row r="93" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A93" s="74" t="s">
+      <c r="A93" s="67" t="s">
         <v>289</v>
       </c>
       <c r="B93" s="20" t="s">
@@ -7041,7 +7046,7 @@
       <c r="AB93" s="32"/>
     </row>
     <row r="94" spans="1:28" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A94" s="75" t="s">
+      <c r="A94" s="68" t="s">
         <v>288</v>
       </c>
       <c r="B94" s="22" t="s">
@@ -7102,7 +7107,7 @@
       <c r="AB94" s="34"/>
     </row>
     <row r="95" spans="1:28" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A95" s="75" t="s">
+      <c r="A95" s="68" t="s">
         <v>287</v>
       </c>
       <c r="B95" s="22" t="s">
@@ -7432,7 +7437,7 @@
       <c r="AB100" s="37"/>
     </row>
     <row r="101" spans="1:28" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A101" s="76" t="s">
+      <c r="A101" s="69" t="s">
         <v>282</v>
       </c>
       <c r="B101" s="29" t="s">
@@ -7481,7 +7486,7 @@
       <c r="AB101" s="42"/>
     </row>
     <row r="102" spans="1:28" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A102" s="75" t="s">
+      <c r="A102" s="68" t="s">
         <v>281</v>
       </c>
       <c r="B102" s="22" t="s">
@@ -7797,7 +7802,7 @@
       <c r="AB107" s="35"/>
     </row>
     <row r="108" spans="1:28" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A108" s="75" t="s">
+      <c r="A108" s="68" t="s">
         <v>213</v>
       </c>
       <c r="B108" s="22" t="s">
@@ -8362,7 +8367,7 @@
       <c r="AB118" s="36"/>
     </row>
     <row r="119" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A119" s="74" t="s">
+      <c r="A119" s="67" t="s">
         <v>202</v>
       </c>
       <c r="B119" s="20" t="s">
@@ -8423,7 +8428,7 @@
       <c r="AB119" s="32"/>
     </row>
     <row r="120" spans="1:28" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A120" s="75" t="s">
+      <c r="A120" s="68" t="s">
         <v>201</v>
       </c>
       <c r="B120" s="22" t="s">
@@ -8718,7 +8723,7 @@
       <c r="AB124" s="36"/>
     </row>
     <row r="125" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A125" s="74" t="s">
+      <c r="A125" s="67" t="s">
         <v>196</v>
       </c>
       <c r="B125" s="20" t="s">
@@ -8867,7 +8872,7 @@
       <c r="AB127" s="35"/>
     </row>
     <row r="128" spans="1:28" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A128" s="75" t="s">
+      <c r="A128" s="68" t="s">
         <v>193</v>
       </c>
       <c r="B128" s="22" t="s">
@@ -8928,7 +8933,7 @@
       <c r="AB128" s="34"/>
     </row>
     <row r="129" spans="1:28" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A129" s="75" t="s">
+      <c r="A129" s="68" t="s">
         <v>192</v>
       </c>
       <c r="B129" s="22" t="s">
@@ -9148,7 +9153,7 @@
       <c r="AB132" s="37"/>
     </row>
     <row r="133" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A133" s="74" t="s">
+      <c r="A133" s="67" t="s">
         <v>188</v>
       </c>
       <c r="B133" s="20" t="s">
@@ -9207,7 +9212,7 @@
       <c r="AB133" s="32"/>
     </row>
     <row r="134" spans="1:28" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A134" s="75" t="s">
+      <c r="A134" s="68" t="s">
         <v>187</v>
       </c>
       <c r="B134" s="22" t="s">
@@ -9258,7 +9263,7 @@
       <c r="AB134" s="34"/>
     </row>
     <row r="135" spans="1:28" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A135" s="75" t="s">
+      <c r="A135" s="68" t="s">
         <v>186</v>
       </c>
       <c r="B135" s="22" t="s">
@@ -9662,7 +9667,7 @@
       <c r="AB142" s="37"/>
     </row>
     <row r="143" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A143" s="74" t="s">
+      <c r="A143" s="67" t="s">
         <v>178</v>
       </c>
       <c r="B143" s="20" t="s">
@@ -9874,7 +9879,7 @@
       <c r="AB146" s="36"/>
     </row>
     <row r="147" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A147" s="74" t="s">
+      <c r="A147" s="67" t="s">
         <v>174</v>
       </c>
       <c r="B147" s="20" t="s">
@@ -10006,7 +10011,7 @@
       <c r="AB148" s="36"/>
     </row>
     <row r="149" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A149" s="74" t="s">
+      <c r="A149" s="67" t="s">
         <v>172</v>
       </c>
       <c r="B149" s="20" t="s">
@@ -10083,7 +10088,7 @@
       <c r="AB149" s="32"/>
     </row>
     <row r="150" spans="1:28" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A150" s="75" t="s">
+      <c r="A150" s="68" t="s">
         <v>171</v>
       </c>
       <c r="B150" s="22" t="s">
@@ -10299,7 +10304,7 @@
       <c r="AB153" s="35"/>
     </row>
     <row r="154" spans="1:28" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A154" s="75" t="s">
+      <c r="A154" s="68" t="s">
         <v>167</v>
       </c>
       <c r="B154" s="22" t="s">
@@ -10454,7 +10459,7 @@
       <c r="AB156" s="36"/>
     </row>
     <row r="157" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A157" s="74" t="s">
+      <c r="A157" s="67" t="s">
         <v>164</v>
       </c>
       <c r="B157" s="20" t="s">
@@ -10554,7 +10559,7 @@
       <c r="AB158" s="36"/>
     </row>
     <row r="159" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A159" s="74" t="s">
+      <c r="A159" s="67" t="s">
         <v>162</v>
       </c>
       <c r="B159" s="20" t="s">
@@ -10752,7 +10757,7 @@
       <c r="AB162" s="36"/>
     </row>
     <row r="163" spans="1:28" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A163" s="75" t="s">
+      <c r="A163" s="68" t="s">
         <v>158</v>
       </c>
       <c r="B163" s="22" t="s">
@@ -10864,7 +10869,7 @@
       <c r="AB164" s="36"/>
     </row>
     <row r="165" spans="1:28" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A165" s="75" t="s">
+      <c r="A165" s="68" t="s">
         <v>156</v>
       </c>
       <c r="B165" s="22" t="s">
@@ -11378,7 +11383,7 @@
       <c r="AB174" s="37"/>
     </row>
     <row r="175" spans="1:28" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A175" s="75" t="s">
+      <c r="A175" s="68" t="s">
         <v>146</v>
       </c>
       <c r="B175" s="22" t="s">
@@ -11452,21 +11457,6 @@
     <row r="189" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
@@ -11474,6 +11464,21 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J30" r:id="rId1"/>
@@ -11915,8 +11920,9 @@
     <hyperlink ref="J85" r:id="rId437"/>
     <hyperlink ref="K65" r:id="rId438"/>
     <hyperlink ref="J130" r:id="rId439"/>
+    <hyperlink ref="J75" r:id="rId440"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId440"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId441"/>
 </worksheet>
 </file>
--- a/Evidencias EGC.xlsx
+++ b/Evidencias EGC.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$C$1:$C$189</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Hoja 1'!$A$1:$D$175</definedName>
   </definedNames>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
@@ -1620,12 +1621,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1640,6 +1635,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2011,8 +2012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB189"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2113,37 +2114,37 @@
       </c>
     </row>
     <row r="3" spans="1:28" ht="42" hidden="1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="12"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="79"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="77"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
     </row>
     <row r="4" spans="1:28" ht="25.5" customHeight="1" thickTop="1">
-      <c r="A4" s="76"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
@@ -2159,28 +2160,28 @@
       <c r="F4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="79"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="79"/>
     </row>
     <row r="5" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="44" t="s">
@@ -11457,6 +11458,21 @@
     <row r="189" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
@@ -11464,21 +11480,6 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J30" r:id="rId1"/>
